--- a/output/StructureDefinition-WRPatient.xlsx
+++ b/output/StructureDefinition-WRPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T03:01:36+00:00</t>
+    <t>2025-09-07T21:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,38 +429,65 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:tribalAffiliation</t>
+  </si>
+  <si>
+    <t>tribalAffiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://wrig.corisystem.org/StructureDefinition/us-core-tribalAffiliation}
+</t>
+  </si>
+  <si>
+    <t>US Core Tribal Affiliation Extension</t>
+  </si>
+  <si>
+    <t>Indicates tribal affiliation for American Indian/Alaska Native patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -834,6 +861,9 @@
   </si>
   <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1486,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1497,7 +1527,7 @@
   <cols>
     <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1505,7 +1535,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2486,7 +2516,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2505,17 +2535,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2552,16 +2580,14 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2579,7 +2605,7 @@
         <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2599,43 +2625,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2683,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2692,13 +2716,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2715,14 +2739,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2732,26 +2756,28 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2800,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2812,19 +2838,19 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -2832,10 +2858,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2846,38 +2872,34 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2921,13 +2943,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2936,16 +2958,16 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -2953,10 +2975,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2967,36 +2989,38 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3040,13 +3064,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -3055,16 +3079,16 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3072,10 +3096,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3098,19 +3122,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3159,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3174,16 +3198,16 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3191,10 +3215,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3205,7 +3229,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3217,7 +3241,7 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>183</v>
@@ -3254,13 +3278,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3278,13 +3302,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -3293,16 +3317,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3310,10 +3334,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3321,13 +3345,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>20</v>
@@ -3336,19 +3360,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3373,13 +3397,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3397,7 +3421,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3412,27 +3436,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3440,34 +3464,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3516,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3531,19 +3555,19 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3562,13 +3586,13 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
@@ -3641,7 +3665,7 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -3653,13 +3677,13 @@
         <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -3667,10 +3691,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3681,7 +3705,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3690,18 +3714,20 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>224</v>
       </c>
@@ -3728,13 +3754,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3752,13 +3778,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -3767,16 +3793,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -3784,10 +3810,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3810,19 +3836,17 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3847,13 +3871,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3871,7 +3895,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3886,10 +3910,10 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3917,7 +3941,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3996,7 +4020,7 @@
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -4008,7 +4032,7 @@
         <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4121,19 +4145,19 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4155,7 +4179,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4175,8 +4199,12 @@
       <c r="M23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4224,25 +4252,25 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4256,21 +4284,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4282,17 +4310,15 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4341,22 +4367,22 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4373,14 +4399,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4393,26 +4419,24 @@
         <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4460,7 +4484,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4475,7 +4499,7 @@
         <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4492,14 +4516,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4512,23 +4536,25 @@
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4553,13 +4579,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4577,7 +4603,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4589,19 +4615,19 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4609,10 +4635,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4623,7 +4649,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4635,17 +4661,17 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4670,13 +4696,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4694,13 +4720,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4709,16 +4735,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -4726,10 +4752,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4740,7 +4766,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4752,19 +4778,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4813,13 +4837,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4828,16 +4852,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -4845,10 +4869,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4859,7 +4883,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4871,17 +4895,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4930,13 +4956,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4945,16 +4971,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -4962,10 +4988,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4988,17 +5014,17 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5023,13 +5049,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5047,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5062,16 +5088,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5079,10 +5105,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5105,17 +5131,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5140,13 +5166,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5164,7 +5190,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5173,22 +5199,22 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5196,10 +5222,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5222,16 +5248,18 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5279,7 +5307,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5288,22 +5316,22 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5311,10 +5339,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5325,7 +5353,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5337,20 +5365,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5398,13 +5422,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5413,10 +5437,10 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5430,10 +5454,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5444,7 +5468,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5459,13 +5483,17 @@
         <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5513,25 +5541,25 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5545,21 +5573,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5571,17 +5599,15 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5630,22 +5656,22 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5662,14 +5688,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5682,26 +5708,24 @@
         <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5749,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5764,7 +5788,7 @@
         <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5781,45 +5805,45 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5844,13 +5868,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5868,31 +5892,31 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -5900,10 +5924,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5911,7 +5935,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5926,19 +5950,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5963,13 +5987,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5987,10 +6011,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -6002,16 +6026,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6019,21 +6043,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6045,18 +6069,20 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6104,13 +6130,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6122,13 +6148,13 @@
         <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6136,21 +6162,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6159,23 +6185,21 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6223,13 +6247,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6238,16 +6262,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6255,10 +6279,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6269,31 +6293,31 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6342,13 +6366,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6357,10 +6381,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6374,10 +6398,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6388,28 +6412,32 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6457,25 +6485,25 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6489,21 +6517,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6515,17 +6543,15 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6574,22 +6600,22 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -6606,14 +6632,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6626,26 +6652,24 @@
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6693,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6708,7 +6732,7 @@
         <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6725,44 +6749,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6810,31 +6836,31 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6842,10 +6868,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6868,15 +6894,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6901,31 +6929,31 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -6940,23 +6968,138 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AO46" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6966,7 +7109,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-WRPatient.xlsx
+++ b/output/StructureDefinition-WRPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T21:33:56+00:00</t>
+    <t>2025-09-08T17:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-WRPatient.xlsx
+++ b/output/StructureDefinition-WRPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T17:38:48+00:00</t>
+    <t>2025-09-08T18:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
